--- a/energoServer/tools.xlsx
+++ b/energoServer/tools.xlsx
@@ -416,19 +416,27 @@
     <t>Местонахождение прибора (ЛНК/Ф.И.О.)</t>
   </si>
   <si>
-    <t>Барашев Кирилл Юрьевич</t>
+    <t>Кудаяров Айдар Рафаилович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,55 +616,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -665,22 +674,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -692,49 +701,50 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -1389,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,7 +2216,7 @@
         <v>619</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F15" s="16">
         <v>41621</v>
@@ -2374,7 +2384,7 @@
         <v>622</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F18" s="16">
         <v>41621</v>
@@ -2876,7 +2886,7 @@
         <v>103</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F27" s="6">
         <v>42737</v>
@@ -3212,7 +3222,7 @@
         <v>786</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F33" s="6">
         <v>44562</v>
@@ -4637,7 +4647,7 @@
       <c r="D59" s="34">
         <v>677</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="6">
@@ -5257,7 +5267,7 @@
         <v>802</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
